--- a/FPDF2014.xlsx
+++ b/FPDF2014.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ginsy\Desktop\Projects\FantasyML\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2F3A6B-050E-4A09-AD41-7373684170A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1459,8 +1465,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1536,6 +1542,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1582,7 +1596,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1614,9 +1628,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1648,6 +1680,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1823,14 +1873,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D239"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1844,7 +1896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1858,7 +1910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1872,7 +1924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1886,7 +1938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1900,7 +1952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1914,7 +1966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1928,7 +1980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1942,7 +1994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1956,7 +2008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1970,7 +2022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1984,7 +2036,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1998,7 +2050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2012,7 +2064,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2026,7 +2078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2040,7 +2092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -2054,7 +2106,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2068,7 +2120,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2082,7 +2134,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2096,7 +2148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -2110,7 +2162,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -2124,7 +2176,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -2138,7 +2190,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -2152,7 +2204,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -2166,7 +2218,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -2180,7 +2232,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -2194,7 +2246,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -2208,7 +2260,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -2222,7 +2274,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -2236,7 +2288,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -2250,7 +2302,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -2264,7 +2316,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -2278,7 +2330,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -2292,7 +2344,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -2306,7 +2358,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -2320,7 +2372,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -2334,7 +2386,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -2348,7 +2400,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -2362,7 +2414,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -2376,7 +2428,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -2390,7 +2442,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -2404,7 +2456,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -2418,7 +2470,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -2432,7 +2484,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -2446,7 +2498,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -2460,7 +2512,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -2474,7 +2526,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -2488,7 +2540,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -2502,7 +2554,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -2516,7 +2568,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -2530,7 +2582,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -2544,7 +2596,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -2558,7 +2610,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -2572,7 +2624,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -2586,7 +2638,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -2600,7 +2652,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -2614,7 +2666,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -2628,7 +2680,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -2642,7 +2694,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -2656,7 +2708,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -2670,7 +2722,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -2684,7 +2736,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -2698,7 +2750,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -2712,7 +2764,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -2726,7 +2778,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -2740,7 +2792,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -2754,7 +2806,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -2768,7 +2820,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -2782,7 +2834,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -2796,7 +2848,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -2810,7 +2862,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -2824,7 +2876,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -2838,7 +2890,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -2852,7 +2904,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -2866,7 +2918,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -2880,7 +2932,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>78</v>
       </c>
@@ -2894,7 +2946,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -2908,7 +2960,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -2922,7 +2974,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -2936,7 +2988,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -2950,7 +3002,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -2964,7 +3016,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -2978,7 +3030,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -2992,7 +3044,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -3006,7 +3058,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -3020,7 +3072,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -3034,7 +3086,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>89</v>
       </c>
@@ -3048,7 +3100,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -3062,7 +3114,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>91</v>
       </c>
@@ -3076,7 +3128,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>92</v>
       </c>
@@ -3090,7 +3142,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>93</v>
       </c>
@@ -3104,7 +3156,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>94</v>
       </c>
@@ -3118,7 +3170,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>95</v>
       </c>
@@ -3132,7 +3184,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -3146,7 +3198,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>97</v>
       </c>
@@ -3160,7 +3212,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>98</v>
       </c>
@@ -3174,7 +3226,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>99</v>
       </c>
@@ -3188,7 +3240,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>100</v>
       </c>
@@ -3202,7 +3254,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>101</v>
       </c>
@@ -3216,7 +3268,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>102</v>
       </c>
@@ -3230,7 +3282,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>103</v>
       </c>
@@ -3244,7 +3296,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>104</v>
       </c>
@@ -3258,7 +3310,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>105</v>
       </c>
@@ -3272,7 +3324,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>106</v>
       </c>
@@ -3286,7 +3338,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>107</v>
       </c>
@@ -3300,7 +3352,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>108</v>
       </c>
@@ -3314,7 +3366,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>109</v>
       </c>
@@ -3328,7 +3380,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>110</v>
       </c>
@@ -3342,7 +3394,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>111</v>
       </c>
@@ -3356,7 +3408,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>112</v>
       </c>
@@ -3370,7 +3422,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>113</v>
       </c>
@@ -3384,7 +3436,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>114</v>
       </c>
@@ -3398,7 +3450,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>115</v>
       </c>
@@ -3412,7 +3464,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>116</v>
       </c>
@@ -3426,7 +3478,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>117</v>
       </c>
@@ -3440,7 +3492,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>118</v>
       </c>
@@ -3454,7 +3506,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>119</v>
       </c>
@@ -3468,7 +3520,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>120</v>
       </c>
@@ -3482,7 +3534,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>121</v>
       </c>
@@ -3496,7 +3548,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>122</v>
       </c>
@@ -3510,7 +3562,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>123</v>
       </c>
@@ -3524,7 +3576,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>124</v>
       </c>
@@ -3538,7 +3590,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>125</v>
       </c>
@@ -3552,7 +3604,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>126</v>
       </c>
@@ -3566,7 +3618,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>127</v>
       </c>
@@ -3580,7 +3632,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>128</v>
       </c>
@@ -3594,7 +3646,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>129</v>
       </c>
@@ -3608,7 +3660,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>130</v>
       </c>
@@ -3622,7 +3674,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>131</v>
       </c>
@@ -3636,7 +3688,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>132</v>
       </c>
@@ -3650,7 +3702,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>133</v>
       </c>
@@ -3664,7 +3716,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>134</v>
       </c>
@@ -3678,7 +3730,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>135</v>
       </c>
@@ -3692,7 +3744,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>136</v>
       </c>
@@ -3706,7 +3758,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>137</v>
       </c>
@@ -3720,7 +3772,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>138</v>
       </c>
@@ -3734,7 +3786,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>139</v>
       </c>
@@ -3748,7 +3800,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>140</v>
       </c>
@@ -3762,7 +3814,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>141</v>
       </c>
@@ -3776,7 +3828,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>142</v>
       </c>
@@ -3790,7 +3842,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>143</v>
       </c>
@@ -3804,7 +3856,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>144</v>
       </c>
@@ -3818,7 +3870,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>145</v>
       </c>
@@ -3832,7 +3884,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>146</v>
       </c>
@@ -3846,7 +3898,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>147</v>
       </c>
@@ -3860,7 +3912,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>148</v>
       </c>
@@ -3874,7 +3926,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>149</v>
       </c>
@@ -3888,7 +3940,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>150</v>
       </c>
@@ -3902,7 +3954,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>151</v>
       </c>
@@ -3916,7 +3968,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>152</v>
       </c>
@@ -3930,7 +3982,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>153</v>
       </c>
@@ -3944,7 +3996,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>154</v>
       </c>
@@ -3958,7 +4010,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>155</v>
       </c>
@@ -3972,7 +4024,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>156</v>
       </c>
@@ -3986,7 +4038,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>157</v>
       </c>
@@ -4000,7 +4052,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>158</v>
       </c>
@@ -4014,7 +4066,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>159</v>
       </c>
@@ -4028,7 +4080,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>160</v>
       </c>
@@ -4042,7 +4094,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>161</v>
       </c>
@@ -4056,7 +4108,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>162</v>
       </c>
@@ -4070,7 +4122,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>163</v>
       </c>
@@ -4084,7 +4136,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>164</v>
       </c>
@@ -4098,7 +4150,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>165</v>
       </c>
@@ -4112,7 +4164,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>166</v>
       </c>
@@ -4126,7 +4178,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>167</v>
       </c>
@@ -4140,7 +4192,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>168</v>
       </c>
@@ -4154,7 +4206,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>169</v>
       </c>
@@ -4168,7 +4220,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>170</v>
       </c>
@@ -4182,7 +4234,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>171</v>
       </c>
@@ -4196,7 +4248,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>172</v>
       </c>
@@ -4210,7 +4262,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>173</v>
       </c>
@@ -4224,7 +4276,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>174</v>
       </c>
@@ -4238,7 +4290,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>175</v>
       </c>
@@ -4252,7 +4304,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>176</v>
       </c>
@@ -4266,7 +4318,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>177</v>
       </c>
@@ -4280,7 +4332,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>178</v>
       </c>
@@ -4294,7 +4346,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>179</v>
       </c>
@@ -4308,7 +4360,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>180</v>
       </c>
@@ -4322,7 +4374,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>181</v>
       </c>
@@ -4336,7 +4388,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>182</v>
       </c>
@@ -4350,7 +4402,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>183</v>
       </c>
@@ -4364,7 +4416,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>184</v>
       </c>
@@ -4378,7 +4430,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>185</v>
       </c>
@@ -4392,7 +4444,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>186</v>
       </c>
@@ -4406,7 +4458,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>187</v>
       </c>
@@ -4420,7 +4472,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>188</v>
       </c>
@@ -4434,7 +4486,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>189</v>
       </c>
@@ -4448,7 +4500,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>190</v>
       </c>
@@ -4462,7 +4514,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>191</v>
       </c>
@@ -4476,7 +4528,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>192</v>
       </c>
@@ -4490,7 +4542,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>193</v>
       </c>
@@ -4504,7 +4556,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>194</v>
       </c>
@@ -4518,7 +4570,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>195</v>
       </c>
@@ -4532,7 +4584,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>196</v>
       </c>
@@ -4546,7 +4598,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>197</v>
       </c>
@@ -4560,7 +4612,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>198</v>
       </c>
@@ -4574,7 +4626,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>199</v>
       </c>
@@ -4588,7 +4640,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>200</v>
       </c>
@@ -4602,7 +4654,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>201</v>
       </c>
@@ -4616,7 +4668,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>202</v>
       </c>
@@ -4630,7 +4682,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>203</v>
       </c>
@@ -4644,7 +4696,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>204</v>
       </c>
@@ -4658,7 +4710,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>205</v>
       </c>
@@ -4672,7 +4724,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>206</v>
       </c>
@@ -4686,7 +4738,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>207</v>
       </c>
@@ -4700,7 +4752,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>208</v>
       </c>
@@ -4714,7 +4766,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>209</v>
       </c>
@@ -4728,7 +4780,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>210</v>
       </c>
@@ -4742,7 +4794,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>211</v>
       </c>
@@ -4756,7 +4808,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>212</v>
       </c>
@@ -4770,7 +4822,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>213</v>
       </c>
@@ -4784,7 +4836,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>214</v>
       </c>
@@ -4798,7 +4850,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>215</v>
       </c>
@@ -4812,7 +4864,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>216</v>
       </c>
@@ -4826,7 +4878,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>217</v>
       </c>
@@ -4840,7 +4892,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>218</v>
       </c>
@@ -4854,7 +4906,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>219</v>
       </c>
@@ -4868,7 +4920,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>220</v>
       </c>
@@ -4882,7 +4934,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>221</v>
       </c>
@@ -4896,7 +4948,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>222</v>
       </c>
@@ -4910,7 +4962,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>223</v>
       </c>
@@ -4924,7 +4976,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>224</v>
       </c>
@@ -4938,7 +4990,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>225</v>
       </c>
@@ -4952,7 +5004,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>226</v>
       </c>
@@ -4966,7 +5018,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>227</v>
       </c>
@@ -4980,7 +5032,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>228</v>
       </c>
@@ -4994,7 +5046,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>229</v>
       </c>
@@ -5008,7 +5060,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>230</v>
       </c>
@@ -5022,7 +5074,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>231</v>
       </c>
@@ -5036,7 +5088,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>232</v>
       </c>
@@ -5050,7 +5102,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>233</v>
       </c>
@@ -5064,7 +5116,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>234</v>
       </c>
@@ -5078,7 +5130,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>235</v>
       </c>
@@ -5092,7 +5144,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>236</v>
       </c>
@@ -5106,7 +5158,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>237</v>
       </c>
@@ -5120,7 +5172,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>238</v>
       </c>
@@ -5134,7 +5186,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>239</v>
       </c>
@@ -5148,7 +5200,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>240</v>
       </c>
@@ -5162,7 +5214,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>241</v>
       </c>
@@ -5178,244 +5230,244 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B15" r:id="rId14"/>
-    <hyperlink ref="B16" r:id="rId15"/>
-    <hyperlink ref="B17" r:id="rId16"/>
-    <hyperlink ref="B18" r:id="rId17"/>
-    <hyperlink ref="B19" r:id="rId18"/>
-    <hyperlink ref="B20" r:id="rId19"/>
-    <hyperlink ref="B21" r:id="rId20"/>
-    <hyperlink ref="B22" r:id="rId21"/>
-    <hyperlink ref="B23" r:id="rId22"/>
-    <hyperlink ref="B24" r:id="rId23"/>
-    <hyperlink ref="B25" r:id="rId24"/>
-    <hyperlink ref="B26" r:id="rId25"/>
-    <hyperlink ref="B27" r:id="rId26"/>
-    <hyperlink ref="B28" r:id="rId27"/>
-    <hyperlink ref="B29" r:id="rId28"/>
-    <hyperlink ref="B30" r:id="rId29"/>
-    <hyperlink ref="B31" r:id="rId30"/>
-    <hyperlink ref="B32" r:id="rId31"/>
-    <hyperlink ref="B33" r:id="rId32"/>
-    <hyperlink ref="B34" r:id="rId33"/>
-    <hyperlink ref="B35" r:id="rId34"/>
-    <hyperlink ref="B36" r:id="rId35"/>
-    <hyperlink ref="B37" r:id="rId36"/>
-    <hyperlink ref="B38" r:id="rId37"/>
-    <hyperlink ref="B39" r:id="rId38"/>
-    <hyperlink ref="B40" r:id="rId39"/>
-    <hyperlink ref="B41" r:id="rId40"/>
-    <hyperlink ref="B42" r:id="rId41"/>
-    <hyperlink ref="B43" r:id="rId42"/>
-    <hyperlink ref="B44" r:id="rId43"/>
-    <hyperlink ref="B45" r:id="rId44"/>
-    <hyperlink ref="B46" r:id="rId45"/>
-    <hyperlink ref="B47" r:id="rId46"/>
-    <hyperlink ref="B48" r:id="rId47"/>
-    <hyperlink ref="B49" r:id="rId48"/>
-    <hyperlink ref="B50" r:id="rId49"/>
-    <hyperlink ref="B51" r:id="rId50"/>
-    <hyperlink ref="B52" r:id="rId51"/>
-    <hyperlink ref="B53" r:id="rId52"/>
-    <hyperlink ref="B54" r:id="rId53"/>
-    <hyperlink ref="B55" r:id="rId54"/>
-    <hyperlink ref="B56" r:id="rId55"/>
-    <hyperlink ref="B57" r:id="rId56"/>
-    <hyperlink ref="B58" r:id="rId57"/>
-    <hyperlink ref="B59" r:id="rId58"/>
-    <hyperlink ref="B60" r:id="rId59"/>
-    <hyperlink ref="B61" r:id="rId60"/>
-    <hyperlink ref="B62" r:id="rId61"/>
-    <hyperlink ref="B63" r:id="rId62"/>
-    <hyperlink ref="B64" r:id="rId63"/>
-    <hyperlink ref="B65" r:id="rId64"/>
-    <hyperlink ref="B66" r:id="rId65"/>
-    <hyperlink ref="B67" r:id="rId66"/>
-    <hyperlink ref="B68" r:id="rId67"/>
-    <hyperlink ref="B69" r:id="rId68"/>
-    <hyperlink ref="B70" r:id="rId69"/>
-    <hyperlink ref="B71" r:id="rId70"/>
-    <hyperlink ref="B72" r:id="rId71"/>
-    <hyperlink ref="B73" r:id="rId72"/>
-    <hyperlink ref="B74" r:id="rId73"/>
-    <hyperlink ref="B75" r:id="rId74"/>
-    <hyperlink ref="B76" r:id="rId75"/>
-    <hyperlink ref="B77" r:id="rId76"/>
-    <hyperlink ref="B78" r:id="rId77"/>
-    <hyperlink ref="B79" r:id="rId78"/>
-    <hyperlink ref="B80" r:id="rId79"/>
-    <hyperlink ref="B81" r:id="rId80"/>
-    <hyperlink ref="B82" r:id="rId81"/>
-    <hyperlink ref="B83" r:id="rId82"/>
-    <hyperlink ref="B84" r:id="rId83"/>
-    <hyperlink ref="B85" r:id="rId84"/>
-    <hyperlink ref="B86" r:id="rId85"/>
-    <hyperlink ref="B87" r:id="rId86"/>
-    <hyperlink ref="B88" r:id="rId87"/>
-    <hyperlink ref="B89" r:id="rId88"/>
-    <hyperlink ref="B90" r:id="rId89"/>
-    <hyperlink ref="B91" r:id="rId90"/>
-    <hyperlink ref="B92" r:id="rId91"/>
-    <hyperlink ref="B93" r:id="rId92"/>
-    <hyperlink ref="B94" r:id="rId93"/>
-    <hyperlink ref="B95" r:id="rId94"/>
-    <hyperlink ref="B96" r:id="rId95"/>
-    <hyperlink ref="B97" r:id="rId96"/>
-    <hyperlink ref="B98" r:id="rId97"/>
-    <hyperlink ref="B99" r:id="rId98"/>
-    <hyperlink ref="B100" r:id="rId99"/>
-    <hyperlink ref="B101" r:id="rId100"/>
-    <hyperlink ref="B102" r:id="rId101"/>
-    <hyperlink ref="B103" r:id="rId102"/>
-    <hyperlink ref="B104" r:id="rId103"/>
-    <hyperlink ref="B105" r:id="rId104"/>
-    <hyperlink ref="B106" r:id="rId105"/>
-    <hyperlink ref="B107" r:id="rId106"/>
-    <hyperlink ref="B108" r:id="rId107"/>
-    <hyperlink ref="B109" r:id="rId108"/>
-    <hyperlink ref="B110" r:id="rId109"/>
-    <hyperlink ref="B111" r:id="rId110"/>
-    <hyperlink ref="B112" r:id="rId111"/>
-    <hyperlink ref="B113" r:id="rId112"/>
-    <hyperlink ref="B114" r:id="rId113"/>
-    <hyperlink ref="B115" r:id="rId114"/>
-    <hyperlink ref="B116" r:id="rId115"/>
-    <hyperlink ref="B117" r:id="rId116"/>
-    <hyperlink ref="B118" r:id="rId117"/>
-    <hyperlink ref="B119" r:id="rId118"/>
-    <hyperlink ref="B120" r:id="rId119"/>
-    <hyperlink ref="B121" r:id="rId120"/>
-    <hyperlink ref="B122" r:id="rId121"/>
-    <hyperlink ref="B123" r:id="rId122"/>
-    <hyperlink ref="B124" r:id="rId123"/>
-    <hyperlink ref="B125" r:id="rId124"/>
-    <hyperlink ref="B126" r:id="rId125"/>
-    <hyperlink ref="B127" r:id="rId126"/>
-    <hyperlink ref="B128" r:id="rId127"/>
-    <hyperlink ref="B129" r:id="rId128"/>
-    <hyperlink ref="B130" r:id="rId129"/>
-    <hyperlink ref="B131" r:id="rId130"/>
-    <hyperlink ref="B132" r:id="rId131"/>
-    <hyperlink ref="B133" r:id="rId132"/>
-    <hyperlink ref="B134" r:id="rId133"/>
-    <hyperlink ref="B135" r:id="rId134"/>
-    <hyperlink ref="B136" r:id="rId135"/>
-    <hyperlink ref="B137" r:id="rId136"/>
-    <hyperlink ref="B138" r:id="rId137"/>
-    <hyperlink ref="B139" r:id="rId138"/>
-    <hyperlink ref="B140" r:id="rId139"/>
-    <hyperlink ref="B141" r:id="rId140"/>
-    <hyperlink ref="B142" r:id="rId141"/>
-    <hyperlink ref="B143" r:id="rId142"/>
-    <hyperlink ref="B144" r:id="rId143"/>
-    <hyperlink ref="B145" r:id="rId144"/>
-    <hyperlink ref="B146" r:id="rId145"/>
-    <hyperlink ref="B147" r:id="rId146"/>
-    <hyperlink ref="B148" r:id="rId147"/>
-    <hyperlink ref="B149" r:id="rId148"/>
-    <hyperlink ref="B150" r:id="rId149"/>
-    <hyperlink ref="B151" r:id="rId150"/>
-    <hyperlink ref="B152" r:id="rId151"/>
-    <hyperlink ref="B153" r:id="rId152"/>
-    <hyperlink ref="B154" r:id="rId153"/>
-    <hyperlink ref="B155" r:id="rId154"/>
-    <hyperlink ref="B156" r:id="rId155"/>
-    <hyperlink ref="B157" r:id="rId156"/>
-    <hyperlink ref="B158" r:id="rId157"/>
-    <hyperlink ref="B159" r:id="rId158"/>
-    <hyperlink ref="B160" r:id="rId159"/>
-    <hyperlink ref="B161" r:id="rId160"/>
-    <hyperlink ref="B162" r:id="rId161"/>
-    <hyperlink ref="B163" r:id="rId162"/>
-    <hyperlink ref="B164" r:id="rId163"/>
-    <hyperlink ref="B165" r:id="rId164"/>
-    <hyperlink ref="B166" r:id="rId165"/>
-    <hyperlink ref="B167" r:id="rId166"/>
-    <hyperlink ref="B168" r:id="rId167"/>
-    <hyperlink ref="B169" r:id="rId168"/>
-    <hyperlink ref="B170" r:id="rId169"/>
-    <hyperlink ref="B171" r:id="rId170"/>
-    <hyperlink ref="B172" r:id="rId171"/>
-    <hyperlink ref="B173" r:id="rId172"/>
-    <hyperlink ref="B174" r:id="rId173"/>
-    <hyperlink ref="B175" r:id="rId174"/>
-    <hyperlink ref="B176" r:id="rId175"/>
-    <hyperlink ref="B177" r:id="rId176"/>
-    <hyperlink ref="B178" r:id="rId177"/>
-    <hyperlink ref="B179" r:id="rId178"/>
-    <hyperlink ref="B180" r:id="rId179"/>
-    <hyperlink ref="B181" r:id="rId180"/>
-    <hyperlink ref="B182" r:id="rId181"/>
-    <hyperlink ref="B183" r:id="rId182"/>
-    <hyperlink ref="B184" r:id="rId183"/>
-    <hyperlink ref="B185" r:id="rId184"/>
-    <hyperlink ref="B186" r:id="rId185"/>
-    <hyperlink ref="B187" r:id="rId186"/>
-    <hyperlink ref="B188" r:id="rId187"/>
-    <hyperlink ref="B189" r:id="rId188"/>
-    <hyperlink ref="B190" r:id="rId189"/>
-    <hyperlink ref="B191" r:id="rId190"/>
-    <hyperlink ref="B192" r:id="rId191"/>
-    <hyperlink ref="B193" r:id="rId192"/>
-    <hyperlink ref="B194" r:id="rId193"/>
-    <hyperlink ref="B195" r:id="rId194"/>
-    <hyperlink ref="B196" r:id="rId195"/>
-    <hyperlink ref="B197" r:id="rId196"/>
-    <hyperlink ref="B198" r:id="rId197"/>
-    <hyperlink ref="B199" r:id="rId198"/>
-    <hyperlink ref="B200" r:id="rId199"/>
-    <hyperlink ref="B201" r:id="rId200"/>
-    <hyperlink ref="B202" r:id="rId201"/>
-    <hyperlink ref="B203" r:id="rId202"/>
-    <hyperlink ref="B204" r:id="rId203"/>
-    <hyperlink ref="B205" r:id="rId204"/>
-    <hyperlink ref="B206" r:id="rId205"/>
-    <hyperlink ref="B207" r:id="rId206"/>
-    <hyperlink ref="B208" r:id="rId207"/>
-    <hyperlink ref="B209" r:id="rId208"/>
-    <hyperlink ref="B210" r:id="rId209"/>
-    <hyperlink ref="B211" r:id="rId210"/>
-    <hyperlink ref="B212" r:id="rId211"/>
-    <hyperlink ref="B213" r:id="rId212"/>
-    <hyperlink ref="B214" r:id="rId213"/>
-    <hyperlink ref="B215" r:id="rId214"/>
-    <hyperlink ref="B216" r:id="rId215"/>
-    <hyperlink ref="B217" r:id="rId216"/>
-    <hyperlink ref="B218" r:id="rId217"/>
-    <hyperlink ref="B219" r:id="rId218"/>
-    <hyperlink ref="B220" r:id="rId219"/>
-    <hyperlink ref="B221" r:id="rId220"/>
-    <hyperlink ref="B222" r:id="rId221"/>
-    <hyperlink ref="B223" r:id="rId222"/>
-    <hyperlink ref="B224" r:id="rId223"/>
-    <hyperlink ref="B225" r:id="rId224"/>
-    <hyperlink ref="B226" r:id="rId225"/>
-    <hyperlink ref="B227" r:id="rId226"/>
-    <hyperlink ref="B228" r:id="rId227"/>
-    <hyperlink ref="B229" r:id="rId228"/>
-    <hyperlink ref="B230" r:id="rId229"/>
-    <hyperlink ref="B231" r:id="rId230"/>
-    <hyperlink ref="B232" r:id="rId231"/>
-    <hyperlink ref="B233" r:id="rId232"/>
-    <hyperlink ref="B234" r:id="rId233"/>
-    <hyperlink ref="B235" r:id="rId234"/>
-    <hyperlink ref="B236" r:id="rId235"/>
-    <hyperlink ref="B237" r:id="rId236"/>
-    <hyperlink ref="B238" r:id="rId237"/>
-    <hyperlink ref="B239" r:id="rId238"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="B103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="B105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="B106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="B107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="B108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="B109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="B111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="B112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="B113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="B114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="B115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="B116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="B117" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="B118" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="B119" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B120" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="B121" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B122" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="B123" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="B124" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="B125" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="B126" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="B127" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B128" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="B129" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="B130" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="B131" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="B132" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="B133" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="B134" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="B135" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="B136" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="B137" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B138" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="B139" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="B140" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="B141" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="B142" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="B143" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B144" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="B145" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B146" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="B147" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B148" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="B149" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B150" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="B151" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B152" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="B153" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="B154" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="B155" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="B156" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="B157" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="B158" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="B159" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="B160" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="B161" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="B162" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="B163" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="B164" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="B165" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="B166" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="B167" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B168" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="B169" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="B170" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="B171" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B172" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="B173" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="B174" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="B175" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B176" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="B177" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B178" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="B179" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B180" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="B181" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B182" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="B183" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B184" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="B185" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="B186" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="B187" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B188" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="B189" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="B190" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="B191" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="B192" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="B193" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="B194" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="B195" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="B196" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="B197" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="B198" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="B199" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="B200" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="B201" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="B202" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="B203" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="B204" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="B205" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="B206" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B207" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="B208" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B209" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="B210" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="B211" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="B212" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B213" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="B214" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="B215" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="B216" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="B217" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B218" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="B219" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="B220" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="B221" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="B222" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B223" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="B224" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="B225" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="B226" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B227" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B228" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="B229" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B230" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="B231" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="B232" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B233" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B234" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B235" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B236" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B237" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B238" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B239" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
